--- a/data/zenodo_ivan/conversion/elec/CHE_convelec_onshorewind.xlsx
+++ b/data/zenodo_ivan/conversion/elec/CHE_convelec_onshorewind.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/elec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F954BD33-7299-2542-AB00-B48767341914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BD6D42-E78D-434F-A337-8F9D59974CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$849</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$850</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="72">
   <si>
     <t>Name:</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>constant_fxe</t>
+  </si>
+  <si>
+    <t>capacity_to_activity</t>
+  </si>
+  <si>
+    <t>GW/TWh</t>
   </si>
 </sst>
 </file>
@@ -664,11 +670,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L429"/>
+  <dimension ref="A1:L430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -840,25 +846,18 @@
       <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
+      <c r="C10" t="s">
+        <v>70</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -868,16 +867,22 @@
         <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="G11">
-        <v>145.5</v>
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
       </c>
       <c r="I11" t="s">
         <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -889,16 +894,13 @@
         <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>51</v>
+        <v>145.5</v>
       </c>
       <c r="I12" t="s">
         <v>47</v>
@@ -913,26 +915,21 @@
         <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>5.216605768</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s">
         <v>47</v>
       </c>
-      <c r="J13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" t="s">
-        <v>54</v>
-      </c>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -942,16 +939,16 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="G14">
-        <v>3979.5929270000001</v>
+        <v>5.216605768</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
         <v>47</v>
@@ -959,7 +956,9 @@
       <c r="J14" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="L14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -969,19 +968,22 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>3979.5929270000001</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
       </c>
       <c r="I15" t="s">
         <v>47</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -993,52 +995,47 @@
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17">
         <v>10</v>
       </c>
-      <c r="I16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17">
-        <v>1990</v>
-      </c>
-      <c r="G17">
-        <v>0.1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1052,7 +1049,7 @@
         <v>39</v>
       </c>
       <c r="E18">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -1067,7 +1064,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1081,7 +1078,7 @@
         <v>39</v>
       </c>
       <c r="E19">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -1096,7 +1093,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1110,7 +1107,7 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -1125,7 +1122,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1139,7 +1136,7 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -1154,7 +1151,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1168,7 +1165,7 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G22">
         <v>0.1</v>
@@ -1183,7 +1180,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1197,10 +1194,10 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H23" t="s">
         <v>57</v>
@@ -1212,7 +1209,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1226,10 +1223,10 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="s">
         <v>57</v>
@@ -1241,7 +1238,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1255,10 +1252,10 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G25">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H25" t="s">
         <v>57</v>
@@ -1270,7 +1267,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1284,10 +1281,10 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G26">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H26" t="s">
         <v>57</v>
@@ -1299,7 +1296,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1313,10 +1310,10 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H27" t="s">
         <v>57</v>
@@ -1328,7 +1325,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1342,10 +1339,10 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H28" t="s">
         <v>57</v>
@@ -1357,7 +1354,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1371,10 +1368,10 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G29">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="H29" t="s">
         <v>57</v>
@@ -1386,7 +1383,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1400,10 +1397,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G30">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H30" t="s">
         <v>57</v>
@@ -1415,7 +1412,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1429,10 +1426,10 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G31">
-        <v>6.3</v>
+        <v>5.2</v>
       </c>
       <c r="H31" t="s">
         <v>57</v>
@@ -1444,7 +1441,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1458,10 +1455,10 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G32">
-        <v>8.4</v>
+        <v>6.3</v>
       </c>
       <c r="H32" t="s">
         <v>57</v>
@@ -1487,10 +1484,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G33">
-        <v>15.3</v>
+        <v>8.4</v>
       </c>
       <c r="H33" t="s">
         <v>57</v>
@@ -1516,10 +1513,10 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G34">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="H34" t="s">
         <v>57</v>
@@ -1545,10 +1542,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G35">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="H35" t="s">
         <v>57</v>
@@ -1574,10 +1571,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G36">
-        <v>22.6</v>
+        <v>18.5</v>
       </c>
       <c r="H36" t="s">
         <v>57</v>
@@ -1603,10 +1600,10 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G37">
-        <v>36.6</v>
+        <v>22.6</v>
       </c>
       <c r="H37" t="s">
         <v>57</v>
@@ -1632,10 +1629,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G38">
-        <v>70.099999999999994</v>
+        <v>36.6</v>
       </c>
       <c r="H38" t="s">
         <v>57</v>
@@ -1661,10 +1658,10 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G39">
-        <v>88.1</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="H39" t="s">
         <v>57</v>
@@ -1690,10 +1687,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G40">
-        <v>89.5</v>
+        <v>88.1</v>
       </c>
       <c r="H40" t="s">
         <v>57</v>
@@ -1719,10 +1716,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G41">
-        <v>100.9</v>
+        <v>89.5</v>
       </c>
       <c r="H41" t="s">
         <v>57</v>
@@ -1748,10 +1745,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G42">
-        <v>110</v>
+        <v>100.9</v>
       </c>
       <c r="H42" t="s">
         <v>57</v>
@@ -1777,10 +1774,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G43">
-        <v>108.6</v>
+        <v>110</v>
       </c>
       <c r="H43" t="s">
         <v>57</v>
@@ -1806,10 +1803,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G44">
-        <v>132.6</v>
+        <v>108.6</v>
       </c>
       <c r="H44" t="s">
         <v>57</v>
@@ -1835,10 +1832,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G45">
-        <v>121.8</v>
+        <v>132.6</v>
       </c>
       <c r="H45" t="s">
         <v>57</v>
@@ -1864,10 +1861,10 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G46">
-        <v>145.9</v>
+        <v>121.8</v>
       </c>
       <c r="H46" t="s">
         <v>57</v>
@@ -1887,19 +1884,19 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
         <v>39</v>
       </c>
       <c r="E47">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G47">
-        <v>0.1</v>
+        <v>145.9</v>
       </c>
       <c r="H47" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I47" t="s">
         <v>47</v>
@@ -1922,7 +1919,7 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G48">
         <v>0.1</v>
@@ -1951,7 +1948,7 @@
         <v>39</v>
       </c>
       <c r="E49">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G49">
         <v>0.1</v>
@@ -1980,7 +1977,7 @@
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G50">
         <v>0.1</v>
@@ -2009,7 +2006,7 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G51">
         <v>0.1</v>
@@ -2038,7 +2035,7 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G52">
         <v>0.1</v>
@@ -2067,10 +2064,10 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H53" t="s">
         <v>55</v>
@@ -2096,10 +2093,10 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G54">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
         <v>55</v>
@@ -2125,10 +2122,10 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G55">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="s">
         <v>55</v>
@@ -2154,7 +2151,7 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G56">
         <v>2.8</v>
@@ -2183,7 +2180,7 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G57">
         <v>2.8</v>
@@ -2212,10 +2209,10 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G58">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="H58" t="s">
         <v>55</v>
@@ -2241,10 +2238,10 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G59">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="H59" t="s">
         <v>55</v>
@@ -2270,10 +2267,10 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G60">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H60" t="s">
         <v>55</v>
@@ -2299,10 +2296,10 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G61">
-        <v>8.6999999999999993</v>
+        <v>5.4</v>
       </c>
       <c r="H61" t="s">
         <v>55</v>
@@ -2328,10 +2325,10 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G62">
-        <v>11.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H62" t="s">
         <v>55</v>
@@ -2357,7 +2354,7 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G63">
         <v>11.6</v>
@@ -2386,7 +2383,7 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G64">
         <v>11.6</v>
@@ -2415,10 +2412,10 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G65">
-        <v>13.6</v>
+        <v>11.6</v>
       </c>
       <c r="H65" t="s">
         <v>55</v>
@@ -2444,10 +2441,10 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G66">
-        <v>17.600000000000001</v>
+        <v>13.6</v>
       </c>
       <c r="H66" t="s">
         <v>55</v>
@@ -2473,10 +2470,10 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G67">
-        <v>42.3</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="H67" t="s">
         <v>55</v>
@@ -2502,10 +2499,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G68">
-        <v>45.5</v>
+        <v>42.3</v>
       </c>
       <c r="H68" t="s">
         <v>55</v>
@@ -2531,10 +2528,10 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G69">
-        <v>49.4</v>
+        <v>45.5</v>
       </c>
       <c r="H69" t="s">
         <v>55</v>
@@ -2560,10 +2557,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G70">
-        <v>60.3</v>
+        <v>49.4</v>
       </c>
       <c r="H70" t="s">
         <v>55</v>
@@ -2589,7 +2586,7 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G71">
         <v>60.3</v>
@@ -2618,7 +2615,7 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G72">
         <v>60.3</v>
@@ -2647,10 +2644,10 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G73">
-        <v>75.400000000000006</v>
+        <v>60.3</v>
       </c>
       <c r="H73" t="s">
         <v>55</v>
@@ -2676,7 +2673,7 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G74">
         <v>75.400000000000006</v>
@@ -2705,7 +2702,7 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G75">
         <v>75.400000000000006</v>
@@ -2734,7 +2731,7 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G76">
         <v>75.400000000000006</v>
@@ -2757,16 +2754,16 @@
         <v>43</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
         <v>39</v>
       </c>
       <c r="E77">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="H77" t="s">
         <v>55</v>
@@ -2776,9 +2773,6 @@
       </c>
       <c r="J77" t="s">
         <v>58</v>
-      </c>
-      <c r="L77" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -2795,7 +2789,7 @@
         <v>39</v>
       </c>
       <c r="E78">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2827,7 +2821,7 @@
         <v>39</v>
       </c>
       <c r="E79">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2859,7 +2853,7 @@
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2891,7 +2885,7 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2923,7 +2917,7 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2955,10 +2949,10 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G83">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H83" t="s">
         <v>55</v>
@@ -2987,10 +2981,10 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G84">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="s">
         <v>55</v>
@@ -3019,10 +3013,10 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G85">
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H85" t="s">
         <v>55</v>
@@ -3051,10 +3045,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="s">
         <v>55</v>
@@ -3083,7 +3077,7 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3115,10 +3109,10 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G88">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H88" t="s">
         <v>55</v>
@@ -3147,10 +3141,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G89">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H89" t="s">
         <v>55</v>
@@ -3179,10 +3173,10 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G90">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="s">
         <v>55</v>
@@ -3211,10 +3205,10 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G91">
-        <v>3.3</v>
+        <v>0.1</v>
       </c>
       <c r="H91" t="s">
         <v>55</v>
@@ -3243,10 +3237,10 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G92">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H92" t="s">
         <v>55</v>
@@ -3275,10 +3269,10 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H93" t="s">
         <v>55</v>
@@ -3307,7 +3301,7 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3339,10 +3333,10 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H95" t="s">
         <v>55</v>
@@ -3371,10 +3365,10 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H96" t="s">
         <v>55</v>
@@ -3403,10 +3397,10 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G97">
-        <v>24.7</v>
+        <v>4</v>
       </c>
       <c r="H97" t="s">
         <v>55</v>
@@ -3435,10 +3429,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G98">
-        <v>3.2</v>
+        <v>24.7</v>
       </c>
       <c r="H98" t="s">
         <v>55</v>
@@ -3467,10 +3461,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G99">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="H99" t="s">
         <v>55</v>
@@ -3499,10 +3493,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G100">
-        <v>10.9</v>
+        <v>3.9</v>
       </c>
       <c r="H100" t="s">
         <v>55</v>
@@ -3531,10 +3525,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="H101" t="s">
         <v>55</v>
@@ -3563,7 +3557,7 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3595,10 +3589,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G103">
-        <v>15.1</v>
+        <v>0</v>
       </c>
       <c r="H103" t="s">
         <v>55</v>
@@ -3627,10 +3621,10 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="H104" t="s">
         <v>55</v>
@@ -3659,7 +3653,7 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3691,7 +3685,7 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3717,13 +3711,13 @@
         <v>43</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D107" t="s">
         <v>39</v>
       </c>
       <c r="E107">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3755,7 +3749,7 @@
         <v>39</v>
       </c>
       <c r="E108">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3787,7 +3781,7 @@
         <v>39</v>
       </c>
       <c r="E109">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3819,7 +3813,7 @@
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3851,7 +3845,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3883,7 +3877,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3915,7 +3909,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3947,7 +3941,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3979,7 +3973,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4011,7 +4005,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4043,7 +4037,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4075,7 +4069,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4107,7 +4101,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4139,7 +4133,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4171,7 +4165,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4203,7 +4197,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4235,7 +4229,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4267,7 +4261,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4299,7 +4293,7 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4331,7 +4325,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4363,7 +4357,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4395,7 +4389,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4427,7 +4421,7 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4459,7 +4453,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4491,7 +4485,7 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4523,7 +4517,7 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4555,7 +4549,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4587,7 +4581,7 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4619,7 +4613,7 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4651,7 +4645,7 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4677,16 +4671,28 @@
         <v>43</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D137" t="s">
         <v>39</v>
       </c>
       <c r="E137">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>55</v>
       </c>
       <c r="I137" t="s">
         <v>47</v>
+      </c>
+      <c r="J137" t="s">
+        <v>58</v>
+      </c>
+      <c r="L137" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -4703,7 +4709,7 @@
         <v>39</v>
       </c>
       <c r="E138">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I138" t="s">
         <v>47</v>
@@ -4723,7 +4729,7 @@
         <v>39</v>
       </c>
       <c r="E139">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I139" t="s">
         <v>47</v>
@@ -4743,7 +4749,7 @@
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I140" t="s">
         <v>47</v>
@@ -4763,7 +4769,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I141" t="s">
         <v>47</v>
@@ -4783,7 +4789,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I142" t="s">
         <v>47</v>
@@ -4803,7 +4809,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I143" t="s">
         <v>47</v>
@@ -4823,7 +4829,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I144" t="s">
         <v>47</v>
@@ -4843,7 +4849,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I145" t="s">
         <v>47</v>
@@ -4863,7 +4869,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I146" t="s">
         <v>47</v>
@@ -4883,7 +4889,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I147" t="s">
         <v>47</v>
@@ -4903,7 +4909,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I148" t="s">
         <v>47</v>
@@ -4923,7 +4929,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I149" t="s">
         <v>47</v>
@@ -4943,7 +4949,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I150" t="s">
         <v>47</v>
@@ -4963,7 +4969,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I151" t="s">
         <v>47</v>
@@ -4983,7 +4989,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I152" t="s">
         <v>47</v>
@@ -5003,7 +5009,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I153" t="s">
         <v>47</v>
@@ -5023,7 +5029,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I154" t="s">
         <v>47</v>
@@ -5043,7 +5049,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I155" t="s">
         <v>47</v>
@@ -5063,7 +5069,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I156" t="s">
         <v>47</v>
@@ -5083,7 +5089,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I157" t="s">
         <v>47</v>
@@ -5103,7 +5109,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I158" t="s">
         <v>47</v>
@@ -5123,7 +5129,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I159" t="s">
         <v>47</v>
@@ -5143,7 +5149,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I160" t="s">
         <v>47</v>
@@ -5163,7 +5169,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I161" t="s">
         <v>47</v>
@@ -5183,7 +5189,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I162" t="s">
         <v>47</v>
@@ -5203,7 +5209,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I163" t="s">
         <v>47</v>
@@ -5223,7 +5229,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I164" t="s">
         <v>47</v>
@@ -5243,19 +5249,10 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2018</v>
-      </c>
-      <c r="G165">
-        <v>50</v>
-      </c>
-      <c r="H165" t="s">
-        <v>60</v>
+        <v>2017</v>
       </c>
       <c r="I165" t="s">
         <v>47</v>
-      </c>
-      <c r="J165" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -5272,10 +5269,19 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G166">
+        <v>50</v>
+      </c>
+      <c r="H166" t="s">
+        <v>60</v>
       </c>
       <c r="I166" t="s">
         <v>47</v>
+      </c>
+      <c r="J166" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -5286,28 +5292,16 @@
         <v>43</v>
       </c>
       <c r="C167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D167" t="s">
         <v>39</v>
       </c>
       <c r="E167">
-        <v>1990</v>
-      </c>
-      <c r="G167">
-        <v>4531.9508130000004</v>
-      </c>
-      <c r="H167" t="s">
-        <v>63</v>
+        <v>2019</v>
       </c>
       <c r="I167" t="s">
         <v>47</v>
-      </c>
-      <c r="J167" t="s">
-        <v>64</v>
-      </c>
-      <c r="L167" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
@@ -5324,10 +5318,10 @@
         <v>39</v>
       </c>
       <c r="E168">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G168">
-        <v>4486.0586199999998</v>
+        <v>4531.9508130000004</v>
       </c>
       <c r="H168" t="s">
         <v>63</v>
@@ -5335,6 +5329,12 @@
       <c r="I168" t="s">
         <v>47</v>
       </c>
+      <c r="J168" t="s">
+        <v>64</v>
+      </c>
+      <c r="L168" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
@@ -5350,10 +5350,10 @@
         <v>39</v>
       </c>
       <c r="E169">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G169">
-        <v>4229.2159490000004</v>
+        <v>4486.0586199999998</v>
       </c>
       <c r="H169" t="s">
         <v>63</v>
@@ -5376,10 +5376,10 @@
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G170">
-        <v>4113.0237550000002</v>
+        <v>4229.2159490000004</v>
       </c>
       <c r="H170" t="s">
         <v>63</v>
@@ -5402,10 +5402,10 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G171">
-        <v>3809.3144179999999</v>
+        <v>4113.0237550000002</v>
       </c>
       <c r="H171" t="s">
         <v>63</v>
@@ -5428,10 +5428,10 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G172">
-        <v>3216.8593540000002</v>
+        <v>3809.3144179999999</v>
       </c>
       <c r="H172" t="s">
         <v>63</v>
@@ -5454,10 +5454,10 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G173">
-        <v>3081.0364030000001</v>
+        <v>3216.8593540000002</v>
       </c>
       <c r="H173" t="s">
         <v>63</v>
@@ -5480,10 +5480,10 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G174">
-        <v>3052.442098</v>
+        <v>3081.0364030000001</v>
       </c>
       <c r="H174" t="s">
         <v>63</v>
@@ -5506,10 +5506,10 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G175">
-        <v>3181.1164720000002</v>
+        <v>3052.442098</v>
       </c>
       <c r="H175" t="s">
         <v>63</v>
@@ -5532,10 +5532,10 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G176">
-        <v>3026.0556649999999</v>
+        <v>3181.1164720000002</v>
       </c>
       <c r="H176" t="s">
         <v>63</v>
@@ -5558,10 +5558,10 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G177">
-        <v>2992.6932879999999</v>
+        <v>3026.0556649999999</v>
       </c>
       <c r="H177" t="s">
         <v>63</v>
@@ -5584,10 +5584,10 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G178">
-        <v>2952.990397</v>
+        <v>2992.6932879999999</v>
       </c>
       <c r="H178" t="s">
         <v>63</v>
@@ -5610,10 +5610,10 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G179">
-        <v>2986.2752169999999</v>
+        <v>2952.990397</v>
       </c>
       <c r="H179" t="s">
         <v>63</v>
@@ -5636,10 +5636,10 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G180">
-        <v>2955.9697059999999</v>
+        <v>2986.2752169999999</v>
       </c>
       <c r="H180" t="s">
         <v>63</v>
@@ -5662,10 +5662,10 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G181">
-        <v>2966.7566470000002</v>
+        <v>2955.9697059999999</v>
       </c>
       <c r="H181" t="s">
         <v>63</v>
@@ -5688,10 +5688,10 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G182">
-        <v>2933.762999</v>
+        <v>2966.7566470000002</v>
       </c>
       <c r="H182" t="s">
         <v>63</v>
@@ -5714,10 +5714,10 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G183">
-        <v>2877.591997</v>
+        <v>2933.762999</v>
       </c>
       <c r="H183" t="s">
         <v>63</v>
@@ -5740,10 +5740,10 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G184">
-        <v>2869.6669259999999</v>
+        <v>2877.591997</v>
       </c>
       <c r="H184" t="s">
         <v>63</v>
@@ -5766,10 +5766,10 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G185">
-        <v>3096.991035</v>
+        <v>2869.6669259999999</v>
       </c>
       <c r="H185" t="s">
         <v>63</v>
@@ -5792,10 +5792,10 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G186">
-        <v>3038.1137739999999</v>
+        <v>3096.991035</v>
       </c>
       <c r="H186" t="s">
         <v>63</v>
@@ -5818,10 +5818,10 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G187">
-        <v>2987.8845059999999</v>
+        <v>3038.1137739999999</v>
       </c>
       <c r="H187" t="s">
         <v>63</v>
@@ -5844,7 +5844,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G188">
         <v>2987.8845059999999</v>
@@ -5870,10 +5870,10 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G189">
-        <v>2714.4870559999999</v>
+        <v>2987.8845059999999</v>
       </c>
       <c r="H189" t="s">
         <v>63</v>
@@ -5896,10 +5896,10 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G190">
-        <v>2681.5936729999999</v>
+        <v>2714.4870559999999</v>
       </c>
       <c r="H190" t="s">
         <v>63</v>
@@ -5922,10 +5922,10 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G191">
-        <v>2645.5219229999998</v>
+        <v>2681.5936729999999</v>
       </c>
       <c r="H191" t="s">
         <v>63</v>
@@ -5948,10 +5948,10 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G192">
-        <v>2596.2485830000001</v>
+        <v>2645.5219229999998</v>
       </c>
       <c r="H192" t="s">
         <v>63</v>
@@ -5974,10 +5974,10 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G193">
-        <v>2546.7514999999999</v>
+        <v>2596.2485830000001</v>
       </c>
       <c r="H193" t="s">
         <v>63</v>
@@ -6000,10 +6000,10 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G194">
-        <v>2546.3549710000002</v>
+        <v>2546.7514999999999</v>
       </c>
       <c r="H194" t="s">
         <v>63</v>
@@ -6026,10 +6026,10 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G195">
-        <v>2504.4505570000001</v>
+        <v>2546.3549710000002</v>
       </c>
       <c r="H195" t="s">
         <v>63</v>
@@ -6052,10 +6052,10 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G196">
-        <v>2318.2230129999998</v>
+        <v>2504.4505570000001</v>
       </c>
       <c r="H196" t="s">
         <v>63</v>
@@ -6072,13 +6072,19 @@
         <v>43</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D197" t="s">
         <v>39</v>
       </c>
       <c r="E197">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G197">
+        <v>2318.2230129999998</v>
+      </c>
+      <c r="H197" t="s">
+        <v>63</v>
       </c>
       <c r="I197" t="s">
         <v>47</v>
@@ -6098,7 +6104,7 @@
         <v>39</v>
       </c>
       <c r="E198">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I198" t="s">
         <v>47</v>
@@ -6118,7 +6124,7 @@
         <v>39</v>
       </c>
       <c r="E199">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I199" t="s">
         <v>47</v>
@@ -6138,7 +6144,7 @@
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I200" t="s">
         <v>47</v>
@@ -6158,7 +6164,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I201" t="s">
         <v>47</v>
@@ -6178,7 +6184,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I202" t="s">
         <v>47</v>
@@ -6198,7 +6204,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I203" t="s">
         <v>47</v>
@@ -6218,7 +6224,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I204" t="s">
         <v>47</v>
@@ -6238,7 +6244,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I205" t="s">
         <v>47</v>
@@ -6258,7 +6264,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I206" t="s">
         <v>47</v>
@@ -6278,7 +6284,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I207" t="s">
         <v>47</v>
@@ -6298,7 +6304,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I208" t="s">
         <v>47</v>
@@ -6318,7 +6324,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I209" t="s">
         <v>47</v>
@@ -6338,7 +6344,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I210" t="s">
         <v>47</v>
@@ -6358,7 +6364,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I211" t="s">
         <v>47</v>
@@ -6378,7 +6384,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I212" t="s">
         <v>47</v>
@@ -6398,7 +6404,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I213" t="s">
         <v>47</v>
@@ -6418,7 +6424,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I214" t="s">
         <v>47</v>
@@ -6438,7 +6444,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I215" t="s">
         <v>47</v>
@@ -6458,7 +6464,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I216" t="s">
         <v>47</v>
@@ -6478,7 +6484,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I217" t="s">
         <v>47</v>
@@ -6498,7 +6504,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I218" t="s">
         <v>47</v>
@@ -6518,7 +6524,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I219" t="s">
         <v>47</v>
@@ -6538,7 +6544,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I220" t="s">
         <v>47</v>
@@ -6558,7 +6564,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I221" t="s">
         <v>47</v>
@@ -6578,7 +6584,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I222" t="s">
         <v>47</v>
@@ -6598,7 +6604,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I223" t="s">
         <v>47</v>
@@ -6618,7 +6624,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I224" t="s">
         <v>47</v>
@@ -6638,22 +6644,10 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2018</v>
-      </c>
-      <c r="G225">
-        <v>0</v>
-      </c>
-      <c r="H225" t="s">
-        <v>66</v>
+        <v>2017</v>
       </c>
       <c r="I225" t="s">
         <v>47</v>
-      </c>
-      <c r="J225" t="s">
-        <v>61</v>
-      </c>
-      <c r="L225" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -6670,10 +6664,22 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226" t="s">
+        <v>66</v>
       </c>
       <c r="I226" t="s">
         <v>47</v>
+      </c>
+      <c r="J226" t="s">
+        <v>61</v>
+      </c>
+      <c r="L226" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -6684,28 +6690,16 @@
         <v>43</v>
       </c>
       <c r="C227" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D227" t="s">
         <v>39</v>
       </c>
       <c r="E227">
-        <v>1990</v>
-      </c>
-      <c r="G227">
-        <v>0</v>
-      </c>
-      <c r="H227" t="s">
-        <v>55</v>
+        <v>2019</v>
       </c>
       <c r="I227" t="s">
         <v>47</v>
-      </c>
-      <c r="J227" t="s">
-        <v>58</v>
-      </c>
-      <c r="L227" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -6722,7 +6716,7 @@
         <v>39</v>
       </c>
       <c r="E228">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -6754,7 +6748,7 @@
         <v>39</v>
       </c>
       <c r="E229">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -6786,7 +6780,7 @@
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6818,7 +6812,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6850,7 +6844,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6882,7 +6876,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6914,7 +6908,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6946,7 +6940,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6978,7 +6972,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -7010,7 +7004,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -7042,7 +7036,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -7074,7 +7068,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -7106,7 +7100,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -7138,7 +7132,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -7170,7 +7164,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -7202,7 +7196,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -7234,7 +7228,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -7266,7 +7260,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -7298,7 +7292,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7330,7 +7324,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7362,7 +7356,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7394,7 +7388,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7426,7 +7420,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7458,7 +7452,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7490,7 +7484,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7522,7 +7516,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7554,7 +7548,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7586,7 +7580,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7618,7 +7612,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7636,7 +7630,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>16</v>
       </c>
@@ -7644,25 +7638,31 @@
         <v>43</v>
       </c>
       <c r="C257" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D257" t="s">
         <v>39</v>
       </c>
       <c r="E257">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H257" t="s">
+        <v>55</v>
       </c>
       <c r="I257" t="s">
         <v>47</v>
       </c>
       <c r="J257" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="L257" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>16</v>
       </c>
@@ -7676,16 +7676,19 @@
         <v>39</v>
       </c>
       <c r="E258">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G258">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I258" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J258" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>16</v>
       </c>
@@ -7699,7 +7702,7 @@
         <v>39</v>
       </c>
       <c r="E259">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G259">
         <v>0.3</v>
@@ -7708,7 +7711,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>16</v>
       </c>
@@ -7722,7 +7725,7 @@
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G260">
         <v>0.3</v>
@@ -7731,7 +7734,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>16</v>
       </c>
@@ -7745,7 +7748,7 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G261">
         <v>0.3</v>
@@ -7754,7 +7757,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>16</v>
       </c>
@@ -7768,7 +7771,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G262">
         <v>0.3</v>
@@ -7777,7 +7780,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>16</v>
       </c>
@@ -7791,7 +7794,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G263">
         <v>0.3</v>
@@ -7800,7 +7803,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>16</v>
       </c>
@@ -7814,7 +7817,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G264">
         <v>0.3</v>
@@ -7823,7 +7826,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>16</v>
       </c>
@@ -7837,7 +7840,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G265">
         <v>0.3</v>
@@ -7846,7 +7849,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>16</v>
       </c>
@@ -7860,7 +7863,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G266">
         <v>0.3</v>
@@ -7869,7 +7872,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>16</v>
       </c>
@@ -7883,7 +7886,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G267">
         <v>0.3</v>
@@ -7892,7 +7895,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>16</v>
       </c>
@@ -7906,7 +7909,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G268">
         <v>0.3</v>
@@ -7915,7 +7918,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>16</v>
       </c>
@@ -7929,7 +7932,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G269">
         <v>0.3</v>
@@ -7938,7 +7941,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>16</v>
       </c>
@@ -7952,7 +7955,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G270">
         <v>0.3</v>
@@ -7961,7 +7964,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>16</v>
       </c>
@@ -7975,7 +7978,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G271">
         <v>0.3</v>
@@ -7984,7 +7987,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>16</v>
       </c>
@@ -7998,7 +8001,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G272">
         <v>0.3</v>
@@ -8021,7 +8024,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G273">
         <v>0.3</v>
@@ -8044,7 +8047,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G274">
         <v>0.3</v>
@@ -8067,7 +8070,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G275">
         <v>0.3</v>
@@ -8090,7 +8093,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G276">
         <v>0.3</v>
@@ -8113,7 +8116,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G277">
         <v>0.3</v>
@@ -8136,7 +8139,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G278">
         <v>0.3</v>
@@ -8159,7 +8162,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G279">
         <v>0.3</v>
@@ -8182,7 +8185,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G280">
         <v>0.3</v>
@@ -8205,7 +8208,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G281">
         <v>0.3</v>
@@ -8228,7 +8231,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G282">
         <v>0.3</v>
@@ -8251,7 +8254,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G283">
         <v>0.3</v>
@@ -8274,7 +8277,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G284">
         <v>0.3</v>
@@ -8297,7 +8300,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G285">
         <v>0.3</v>
@@ -8320,7 +8323,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G286">
         <v>0.3</v>
@@ -8337,16 +8340,16 @@
         <v>43</v>
       </c>
       <c r="C287" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D287" t="s">
         <v>39</v>
       </c>
       <c r="E287">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G287">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="I287" t="s">
         <v>47</v>
@@ -8366,7 +8369,7 @@
         <v>39</v>
       </c>
       <c r="E288">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G288">
         <v>0.05</v>
@@ -8389,7 +8392,7 @@
         <v>39</v>
       </c>
       <c r="E289">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G289">
         <v>0.05</v>
@@ -8412,7 +8415,7 @@
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G290">
         <v>0.05</v>
@@ -8435,7 +8438,7 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G291">
         <v>0.05</v>
@@ -8458,7 +8461,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G292">
         <v>0.05</v>
@@ -8481,7 +8484,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G293">
         <v>0.05</v>
@@ -8504,7 +8507,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G294">
         <v>0.05</v>
@@ -8527,7 +8530,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G295">
         <v>0.05</v>
@@ -8550,7 +8553,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G296">
         <v>0.05</v>
@@ -8573,7 +8576,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G297">
         <v>0.05</v>
@@ -8596,7 +8599,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G298">
         <v>0.05</v>
@@ -8619,7 +8622,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G299">
         <v>0.05</v>
@@ -8642,7 +8645,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G300">
         <v>0.05</v>
@@ -8665,7 +8668,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G301">
         <v>0.05</v>
@@ -8688,7 +8691,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G302">
         <v>0.05</v>
@@ -8711,7 +8714,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G303">
         <v>0.05</v>
@@ -8734,7 +8737,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G304">
         <v>0.05</v>
@@ -8757,7 +8760,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G305">
         <v>0.05</v>
@@ -8780,7 +8783,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G306">
         <v>0.05</v>
@@ -8803,7 +8806,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G307">
         <v>0.05</v>
@@ -8826,7 +8829,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G308">
         <v>0.05</v>
@@ -8849,7 +8852,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G309">
         <v>0.05</v>
@@ -8872,7 +8875,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G310">
         <v>0.05</v>
@@ -8895,7 +8898,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G311">
         <v>0.05</v>
@@ -8918,7 +8921,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G312">
         <v>0.05</v>
@@ -8941,7 +8944,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G313">
         <v>0.05</v>
@@ -8964,7 +8967,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G314">
         <v>0.05</v>
@@ -8987,7 +8990,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G315">
         <v>0.05</v>
@@ -9010,7 +9013,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G316">
         <v>0.05</v>
@@ -9019,11 +9022,34 @@
         <v>47</v>
       </c>
     </row>
-    <row r="429" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K429" s="2"/>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>16</v>
+      </c>
+      <c r="B317" t="s">
+        <v>43</v>
+      </c>
+      <c r="C317" t="s">
+        <v>29</v>
+      </c>
+      <c r="D317" t="s">
+        <v>39</v>
+      </c>
+      <c r="E317">
+        <v>2019</v>
+      </c>
+      <c r="G317">
+        <v>0.05</v>
+      </c>
+      <c r="I317" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="430" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K430" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L849" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L850" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/conversion/elec/CHE_convelec_onshorewind.xlsx
+++ b/data/zenodo_ivan/conversion/elec/CHE_convelec_onshorewind.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/elec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BD6D42-E78D-434F-A337-8F9D59974CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E25F5EC-C8C6-CF46-AB57-DB92B44563C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$850</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$852</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="75">
   <si>
     <t>Name:</t>
   </si>
@@ -249,6 +249,15 @@
   </si>
   <si>
     <t>GW/TWh</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>configuration_fxe</t>
   </si>
 </sst>
 </file>
@@ -670,11 +679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L430"/>
+  <dimension ref="A1:L432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -776,10 +785,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
@@ -797,10 +806,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -818,26 +827,18 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
       </c>
       <c r="G9">
-        <v>0.25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" t="s">
-        <v>49</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -847,17 +848,18 @@
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
       </c>
       <c r="G10">
-        <v>1E-3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>71</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -866,17 +868,17 @@
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
         <v>47</v>
@@ -884,7 +886,9 @@
       <c r="J11" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -893,19 +897,18 @@
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
+      <c r="C12" t="s">
+        <v>70</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>145.5</v>
-      </c>
-      <c r="I12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -915,19 +918,22 @@
         <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s">
         <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -939,26 +945,18 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="G14">
-        <v>5.216605768</v>
-      </c>
-      <c r="H14" t="s">
-        <v>52</v>
+        <v>145.5</v>
       </c>
       <c r="I14" t="s">
         <v>47</v>
       </c>
-      <c r="J14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" t="s">
-        <v>54</v>
-      </c>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -968,22 +966,19 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="G15">
-        <v>3979.5929270000001</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
         <v>47</v>
-      </c>
-      <c r="J15" t="s">
-        <v>53</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -995,21 +990,26 @@
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>5.216605768</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
       </c>
       <c r="I16" t="s">
         <v>47</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="L16" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1019,19 +1019,22 @@
         <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>3979.5929270000001</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
       </c>
       <c r="I17" t="s">
         <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -1042,27 +1045,22 @@
       <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
-        <v>17</v>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="G18">
-        <v>0.1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="I18" t="s">
         <v>47</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1071,27 +1069,22 @@
       <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="C19" t="s">
-        <v>17</v>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19">
-        <v>1991</v>
+        <v>38</v>
       </c>
       <c r="G19">
-        <v>0.1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="I19" t="s">
         <v>47</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1107,7 +1100,7 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -1136,7 +1129,7 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -1165,7 +1158,7 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G22">
         <v>0.1</v>
@@ -1194,7 +1187,7 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G23">
         <v>0.1</v>
@@ -1223,10 +1216,10 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H24" t="s">
         <v>57</v>
@@ -1252,10 +1245,10 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="H25" t="s">
         <v>57</v>
@@ -1281,10 +1274,10 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G26">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H26" t="s">
         <v>57</v>
@@ -1310,10 +1303,10 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G27">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H27" t="s">
         <v>57</v>
@@ -1339,10 +1332,10 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="s">
         <v>57</v>
@@ -1368,10 +1361,10 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="H29" t="s">
         <v>57</v>
@@ -1397,10 +1390,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G30">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="H30" t="s">
         <v>57</v>
@@ -1426,10 +1419,10 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G31">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="H31" t="s">
         <v>57</v>
@@ -1455,10 +1448,10 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G32">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="H32" t="s">
         <v>57</v>
@@ -1484,10 +1477,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G33">
-        <v>8.4</v>
+        <v>5.2</v>
       </c>
       <c r="H33" t="s">
         <v>57</v>
@@ -1513,10 +1506,10 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G34">
-        <v>15.3</v>
+        <v>6.3</v>
       </c>
       <c r="H34" t="s">
         <v>57</v>
@@ -1542,10 +1535,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G35">
-        <v>16</v>
+        <v>8.4</v>
       </c>
       <c r="H35" t="s">
         <v>57</v>
@@ -1571,10 +1564,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G36">
-        <v>18.5</v>
+        <v>15.3</v>
       </c>
       <c r="H36" t="s">
         <v>57</v>
@@ -1600,10 +1593,10 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G37">
-        <v>22.6</v>
+        <v>16</v>
       </c>
       <c r="H37" t="s">
         <v>57</v>
@@ -1629,10 +1622,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G38">
-        <v>36.6</v>
+        <v>18.5</v>
       </c>
       <c r="H38" t="s">
         <v>57</v>
@@ -1658,10 +1651,10 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G39">
-        <v>70.099999999999994</v>
+        <v>22.6</v>
       </c>
       <c r="H39" t="s">
         <v>57</v>
@@ -1687,10 +1680,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G40">
-        <v>88.1</v>
+        <v>36.6</v>
       </c>
       <c r="H40" t="s">
         <v>57</v>
@@ -1716,10 +1709,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G41">
-        <v>89.5</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="H41" t="s">
         <v>57</v>
@@ -1745,10 +1738,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G42">
-        <v>100.9</v>
+        <v>88.1</v>
       </c>
       <c r="H42" t="s">
         <v>57</v>
@@ -1774,10 +1767,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G43">
-        <v>110</v>
+        <v>89.5</v>
       </c>
       <c r="H43" t="s">
         <v>57</v>
@@ -1803,10 +1796,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G44">
-        <v>108.6</v>
+        <v>100.9</v>
       </c>
       <c r="H44" t="s">
         <v>57</v>
@@ -1832,10 +1825,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G45">
-        <v>132.6</v>
+        <v>110</v>
       </c>
       <c r="H45" t="s">
         <v>57</v>
@@ -1861,10 +1854,10 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G46">
-        <v>121.8</v>
+        <v>108.6</v>
       </c>
       <c r="H46" t="s">
         <v>57</v>
@@ -1890,10 +1883,10 @@
         <v>39</v>
       </c>
       <c r="E47">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G47">
-        <v>145.9</v>
+        <v>132.6</v>
       </c>
       <c r="H47" t="s">
         <v>57</v>
@@ -1913,19 +1906,19 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
         <v>39</v>
       </c>
       <c r="E48">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G48">
-        <v>0.1</v>
+        <v>121.8</v>
       </c>
       <c r="H48" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I48" t="s">
         <v>47</v>
@@ -1942,19 +1935,19 @@
         <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
         <v>39</v>
       </c>
       <c r="E49">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G49">
-        <v>0.1</v>
+        <v>145.9</v>
       </c>
       <c r="H49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I49" t="s">
         <v>47</v>
@@ -1977,7 +1970,7 @@
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G50">
         <v>0.1</v>
@@ -2006,7 +1999,7 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G51">
         <v>0.1</v>
@@ -2035,7 +2028,7 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G52">
         <v>0.1</v>
@@ -2064,7 +2057,7 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G53">
         <v>0.1</v>
@@ -2093,10 +2086,10 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H54" t="s">
         <v>55</v>
@@ -2122,10 +2115,10 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G55">
-        <v>2.1</v>
+        <v>0.1</v>
       </c>
       <c r="H55" t="s">
         <v>55</v>
@@ -2151,10 +2144,10 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G56">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H56" t="s">
         <v>55</v>
@@ -2180,10 +2173,10 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G57">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="s">
         <v>55</v>
@@ -2209,7 +2202,7 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G58">
         <v>2.8</v>
@@ -2238,10 +2231,10 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G59">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="H59" t="s">
         <v>55</v>
@@ -2267,10 +2260,10 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G60">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
       <c r="H60" t="s">
         <v>55</v>
@@ -2296,10 +2289,10 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G61">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="H61" t="s">
         <v>55</v>
@@ -2325,10 +2318,10 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G62">
-        <v>8.6999999999999993</v>
+        <v>5.3</v>
       </c>
       <c r="H62" t="s">
         <v>55</v>
@@ -2354,10 +2347,10 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G63">
-        <v>11.6</v>
+        <v>5.4</v>
       </c>
       <c r="H63" t="s">
         <v>55</v>
@@ -2383,10 +2376,10 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G64">
-        <v>11.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H64" t="s">
         <v>55</v>
@@ -2412,7 +2405,7 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G65">
         <v>11.6</v>
@@ -2441,10 +2434,10 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G66">
-        <v>13.6</v>
+        <v>11.6</v>
       </c>
       <c r="H66" t="s">
         <v>55</v>
@@ -2470,10 +2463,10 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G67">
-        <v>17.600000000000001</v>
+        <v>11.6</v>
       </c>
       <c r="H67" t="s">
         <v>55</v>
@@ -2499,10 +2492,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G68">
-        <v>42.3</v>
+        <v>13.6</v>
       </c>
       <c r="H68" t="s">
         <v>55</v>
@@ -2528,10 +2521,10 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G69">
-        <v>45.5</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="H69" t="s">
         <v>55</v>
@@ -2557,10 +2550,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G70">
-        <v>49.4</v>
+        <v>42.3</v>
       </c>
       <c r="H70" t="s">
         <v>55</v>
@@ -2586,10 +2579,10 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G71">
-        <v>60.3</v>
+        <v>45.5</v>
       </c>
       <c r="H71" t="s">
         <v>55</v>
@@ -2615,10 +2608,10 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G72">
-        <v>60.3</v>
+        <v>49.4</v>
       </c>
       <c r="H72" t="s">
         <v>55</v>
@@ -2644,7 +2637,7 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G73">
         <v>60.3</v>
@@ -2673,10 +2666,10 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G74">
-        <v>75.400000000000006</v>
+        <v>60.3</v>
       </c>
       <c r="H74" t="s">
         <v>55</v>
@@ -2702,10 +2695,10 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G75">
-        <v>75.400000000000006</v>
+        <v>60.3</v>
       </c>
       <c r="H75" t="s">
         <v>55</v>
@@ -2731,7 +2724,7 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G76">
         <v>75.400000000000006</v>
@@ -2760,7 +2753,7 @@
         <v>39</v>
       </c>
       <c r="E77">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G77">
         <v>75.400000000000006</v>
@@ -2783,16 +2776,16 @@
         <v>43</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
         <v>39</v>
       </c>
       <c r="E78">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="H78" t="s">
         <v>55</v>
@@ -2802,9 +2795,6 @@
       </c>
       <c r="J78" t="s">
         <v>58</v>
-      </c>
-      <c r="L78" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -2815,16 +2805,16 @@
         <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
         <v>39</v>
       </c>
       <c r="E79">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="H79" t="s">
         <v>55</v>
@@ -2834,9 +2824,6 @@
       </c>
       <c r="J79" t="s">
         <v>58</v>
-      </c>
-      <c r="L79" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -2853,7 +2840,7 @@
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2885,7 +2872,7 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2917,7 +2904,7 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2949,7 +2936,7 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2981,10 +2968,10 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G84">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H84" t="s">
         <v>55</v>
@@ -3013,10 +3000,10 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G85">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H85" t="s">
         <v>55</v>
@@ -3045,10 +3032,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G86">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="s">
         <v>55</v>
@@ -3077,10 +3064,10 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H87" t="s">
         <v>55</v>
@@ -3109,10 +3096,10 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="s">
         <v>55</v>
@@ -3141,10 +3128,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G89">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H89" t="s">
         <v>55</v>
@@ -3173,10 +3160,10 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G90">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H90" t="s">
         <v>55</v>
@@ -3205,10 +3192,10 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G91">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="H91" t="s">
         <v>55</v>
@@ -3237,10 +3224,10 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G92">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="s">
         <v>55</v>
@@ -3269,10 +3256,10 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G93">
-        <v>2.9</v>
+        <v>0.1</v>
       </c>
       <c r="H93" t="s">
         <v>55</v>
@@ -3301,10 +3288,10 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H94" t="s">
         <v>55</v>
@@ -3333,10 +3320,10 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H95" t="s">
         <v>55</v>
@@ -3365,10 +3352,10 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H96" t="s">
         <v>55</v>
@@ -3397,10 +3384,10 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G97">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H97" t="s">
         <v>55</v>
@@ -3429,10 +3416,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G98">
-        <v>24.7</v>
+        <v>2</v>
       </c>
       <c r="H98" t="s">
         <v>55</v>
@@ -3461,10 +3448,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G99">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="H99" t="s">
         <v>55</v>
@@ -3493,10 +3480,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G100">
-        <v>3.9</v>
+        <v>24.7</v>
       </c>
       <c r="H100" t="s">
         <v>55</v>
@@ -3525,10 +3512,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G101">
-        <v>10.9</v>
+        <v>3.2</v>
       </c>
       <c r="H101" t="s">
         <v>55</v>
@@ -3557,10 +3544,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="H102" t="s">
         <v>55</v>
@@ -3589,10 +3576,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="H103" t="s">
         <v>55</v>
@@ -3621,10 +3608,10 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G104">
-        <v>15.1</v>
+        <v>0</v>
       </c>
       <c r="H104" t="s">
         <v>55</v>
@@ -3653,7 +3640,7 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3685,10 +3672,10 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="H106" t="s">
         <v>55</v>
@@ -3717,7 +3704,7 @@
         <v>39</v>
       </c>
       <c r="E107">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3743,13 +3730,13 @@
         <v>43</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
         <v>39</v>
       </c>
       <c r="E108">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3775,13 +3762,13 @@
         <v>43</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D109" t="s">
         <v>39</v>
       </c>
       <c r="E109">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3813,7 +3800,7 @@
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3845,7 +3832,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3877,7 +3864,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3909,7 +3896,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3941,7 +3928,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3973,7 +3960,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4005,7 +3992,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4037,7 +4024,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4069,7 +4056,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4101,7 +4088,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4133,7 +4120,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4165,7 +4152,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4197,7 +4184,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4229,7 +4216,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4261,7 +4248,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4293,7 +4280,7 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4325,7 +4312,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4357,7 +4344,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4389,7 +4376,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4421,7 +4408,7 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4453,7 +4440,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4485,7 +4472,7 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4517,7 +4504,7 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4549,7 +4536,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4581,7 +4568,7 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4613,7 +4600,7 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4645,7 +4632,7 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4677,7 +4664,7 @@
         <v>39</v>
       </c>
       <c r="E137">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -4703,16 +4690,28 @@
         <v>43</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D138" t="s">
         <v>39</v>
       </c>
       <c r="E138">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>55</v>
       </c>
       <c r="I138" t="s">
         <v>47</v>
+      </c>
+      <c r="J138" t="s">
+        <v>58</v>
+      </c>
+      <c r="L138" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -4723,16 +4722,28 @@
         <v>43</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D139" t="s">
         <v>39</v>
       </c>
       <c r="E139">
-        <v>1991</v>
+        <v>2019</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>55</v>
       </c>
       <c r="I139" t="s">
         <v>47</v>
+      </c>
+      <c r="J139" t="s">
+        <v>58</v>
+      </c>
+      <c r="L139" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -4749,7 +4760,7 @@
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I140" t="s">
         <v>47</v>
@@ -4769,7 +4780,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I141" t="s">
         <v>47</v>
@@ -4789,7 +4800,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I142" t="s">
         <v>47</v>
@@ -4809,7 +4820,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I143" t="s">
         <v>47</v>
@@ -4829,7 +4840,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I144" t="s">
         <v>47</v>
@@ -4849,7 +4860,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I145" t="s">
         <v>47</v>
@@ -4869,7 +4880,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I146" t="s">
         <v>47</v>
@@ -4889,7 +4900,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I147" t="s">
         <v>47</v>
@@ -4909,7 +4920,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I148" t="s">
         <v>47</v>
@@ -4929,7 +4940,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I149" t="s">
         <v>47</v>
@@ -4949,7 +4960,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I150" t="s">
         <v>47</v>
@@ -4969,7 +4980,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I151" t="s">
         <v>47</v>
@@ -4989,7 +5000,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I152" t="s">
         <v>47</v>
@@ -5009,7 +5020,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I153" t="s">
         <v>47</v>
@@ -5029,7 +5040,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I154" t="s">
         <v>47</v>
@@ -5049,7 +5060,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I155" t="s">
         <v>47</v>
@@ -5069,7 +5080,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I156" t="s">
         <v>47</v>
@@ -5089,7 +5100,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I157" t="s">
         <v>47</v>
@@ -5109,7 +5120,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I158" t="s">
         <v>47</v>
@@ -5129,7 +5140,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I159" t="s">
         <v>47</v>
@@ -5149,7 +5160,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I160" t="s">
         <v>47</v>
@@ -5169,7 +5180,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I161" t="s">
         <v>47</v>
@@ -5189,7 +5200,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I162" t="s">
         <v>47</v>
@@ -5209,7 +5220,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I163" t="s">
         <v>47</v>
@@ -5229,7 +5240,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I164" t="s">
         <v>47</v>
@@ -5249,7 +5260,7 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I165" t="s">
         <v>47</v>
@@ -5269,19 +5280,10 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2018</v>
-      </c>
-      <c r="G166">
-        <v>50</v>
-      </c>
-      <c r="H166" t="s">
-        <v>60</v>
+        <v>2016</v>
       </c>
       <c r="I166" t="s">
         <v>47</v>
-      </c>
-      <c r="J166" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -5298,7 +5300,7 @@
         <v>39</v>
       </c>
       <c r="E167">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I167" t="s">
         <v>47</v>
@@ -5312,28 +5314,25 @@
         <v>43</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D168" t="s">
         <v>39</v>
       </c>
       <c r="E168">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G168">
-        <v>4531.9508130000004</v>
+        <v>50</v>
       </c>
       <c r="H168" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I168" t="s">
         <v>47</v>
       </c>
       <c r="J168" t="s">
-        <v>64</v>
-      </c>
-      <c r="L168" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -5344,19 +5343,13 @@
         <v>43</v>
       </c>
       <c r="C169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D169" t="s">
         <v>39</v>
       </c>
       <c r="E169">
-        <v>1991</v>
-      </c>
-      <c r="G169">
-        <v>4486.0586199999998</v>
-      </c>
-      <c r="H169" t="s">
-        <v>63</v>
+        <v>2019</v>
       </c>
       <c r="I169" t="s">
         <v>47</v>
@@ -5376,10 +5369,10 @@
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G170">
-        <v>4229.2159490000004</v>
+        <v>4531.9508130000004</v>
       </c>
       <c r="H170" t="s">
         <v>63</v>
@@ -5387,6 +5380,12 @@
       <c r="I170" t="s">
         <v>47</v>
       </c>
+      <c r="J170" t="s">
+        <v>64</v>
+      </c>
+      <c r="L170" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
@@ -5402,10 +5401,10 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G171">
-        <v>4113.0237550000002</v>
+        <v>4486.0586199999998</v>
       </c>
       <c r="H171" t="s">
         <v>63</v>
@@ -5428,10 +5427,10 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G172">
-        <v>3809.3144179999999</v>
+        <v>4229.2159490000004</v>
       </c>
       <c r="H172" t="s">
         <v>63</v>
@@ -5454,10 +5453,10 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G173">
-        <v>3216.8593540000002</v>
+        <v>4113.0237550000002</v>
       </c>
       <c r="H173" t="s">
         <v>63</v>
@@ -5480,10 +5479,10 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G174">
-        <v>3081.0364030000001</v>
+        <v>3809.3144179999999</v>
       </c>
       <c r="H174" t="s">
         <v>63</v>
@@ -5506,10 +5505,10 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G175">
-        <v>3052.442098</v>
+        <v>3216.8593540000002</v>
       </c>
       <c r="H175" t="s">
         <v>63</v>
@@ -5532,10 +5531,10 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G176">
-        <v>3181.1164720000002</v>
+        <v>3081.0364030000001</v>
       </c>
       <c r="H176" t="s">
         <v>63</v>
@@ -5558,10 +5557,10 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G177">
-        <v>3026.0556649999999</v>
+        <v>3052.442098</v>
       </c>
       <c r="H177" t="s">
         <v>63</v>
@@ -5584,10 +5583,10 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G178">
-        <v>2992.6932879999999</v>
+        <v>3181.1164720000002</v>
       </c>
       <c r="H178" t="s">
         <v>63</v>
@@ -5610,10 +5609,10 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G179">
-        <v>2952.990397</v>
+        <v>3026.0556649999999</v>
       </c>
       <c r="H179" t="s">
         <v>63</v>
@@ -5636,10 +5635,10 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G180">
-        <v>2986.2752169999999</v>
+        <v>2992.6932879999999</v>
       </c>
       <c r="H180" t="s">
         <v>63</v>
@@ -5662,10 +5661,10 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G181">
-        <v>2955.9697059999999</v>
+        <v>2952.990397</v>
       </c>
       <c r="H181" t="s">
         <v>63</v>
@@ -5688,10 +5687,10 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G182">
-        <v>2966.7566470000002</v>
+        <v>2986.2752169999999</v>
       </c>
       <c r="H182" t="s">
         <v>63</v>
@@ -5714,10 +5713,10 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G183">
-        <v>2933.762999</v>
+        <v>2955.9697059999999</v>
       </c>
       <c r="H183" t="s">
         <v>63</v>
@@ -5740,10 +5739,10 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G184">
-        <v>2877.591997</v>
+        <v>2966.7566470000002</v>
       </c>
       <c r="H184" t="s">
         <v>63</v>
@@ -5766,10 +5765,10 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G185">
-        <v>2869.6669259999999</v>
+        <v>2933.762999</v>
       </c>
       <c r="H185" t="s">
         <v>63</v>
@@ -5792,10 +5791,10 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G186">
-        <v>3096.991035</v>
+        <v>2877.591997</v>
       </c>
       <c r="H186" t="s">
         <v>63</v>
@@ -5818,10 +5817,10 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G187">
-        <v>3038.1137739999999</v>
+        <v>2869.6669259999999</v>
       </c>
       <c r="H187" t="s">
         <v>63</v>
@@ -5844,10 +5843,10 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G188">
-        <v>2987.8845059999999</v>
+        <v>3096.991035</v>
       </c>
       <c r="H188" t="s">
         <v>63</v>
@@ -5870,10 +5869,10 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G189">
-        <v>2987.8845059999999</v>
+        <v>3038.1137739999999</v>
       </c>
       <c r="H189" t="s">
         <v>63</v>
@@ -5896,10 +5895,10 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G190">
-        <v>2714.4870559999999</v>
+        <v>2987.8845059999999</v>
       </c>
       <c r="H190" t="s">
         <v>63</v>
@@ -5922,10 +5921,10 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G191">
-        <v>2681.5936729999999</v>
+        <v>2987.8845059999999</v>
       </c>
       <c r="H191" t="s">
         <v>63</v>
@@ -5948,10 +5947,10 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G192">
-        <v>2645.5219229999998</v>
+        <v>2714.4870559999999</v>
       </c>
       <c r="H192" t="s">
         <v>63</v>
@@ -5974,10 +5973,10 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G193">
-        <v>2596.2485830000001</v>
+        <v>2681.5936729999999</v>
       </c>
       <c r="H193" t="s">
         <v>63</v>
@@ -6000,10 +5999,10 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G194">
-        <v>2546.7514999999999</v>
+        <v>2645.5219229999998</v>
       </c>
       <c r="H194" t="s">
         <v>63</v>
@@ -6026,10 +6025,10 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G195">
-        <v>2546.3549710000002</v>
+        <v>2596.2485830000001</v>
       </c>
       <c r="H195" t="s">
         <v>63</v>
@@ -6052,10 +6051,10 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G196">
-        <v>2504.4505570000001</v>
+        <v>2546.7514999999999</v>
       </c>
       <c r="H196" t="s">
         <v>63</v>
@@ -6078,10 +6077,10 @@
         <v>39</v>
       </c>
       <c r="E197">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G197">
-        <v>2318.2230129999998</v>
+        <v>2546.3549710000002</v>
       </c>
       <c r="H197" t="s">
         <v>63</v>
@@ -6098,13 +6097,19 @@
         <v>43</v>
       </c>
       <c r="C198" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D198" t="s">
         <v>39</v>
       </c>
       <c r="E198">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G198">
+        <v>2504.4505570000001</v>
+      </c>
+      <c r="H198" t="s">
+        <v>63</v>
       </c>
       <c r="I198" t="s">
         <v>47</v>
@@ -6118,13 +6123,19 @@
         <v>43</v>
       </c>
       <c r="C199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D199" t="s">
         <v>39</v>
       </c>
       <c r="E199">
-        <v>1991</v>
+        <v>2019</v>
+      </c>
+      <c r="G199">
+        <v>2318.2230129999998</v>
+      </c>
+      <c r="H199" t="s">
+        <v>63</v>
       </c>
       <c r="I199" t="s">
         <v>47</v>
@@ -6144,7 +6155,7 @@
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I200" t="s">
         <v>47</v>
@@ -6164,7 +6175,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I201" t="s">
         <v>47</v>
@@ -6184,7 +6195,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I202" t="s">
         <v>47</v>
@@ -6204,7 +6215,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I203" t="s">
         <v>47</v>
@@ -6224,7 +6235,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I204" t="s">
         <v>47</v>
@@ -6244,7 +6255,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I205" t="s">
         <v>47</v>
@@ -6264,7 +6275,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I206" t="s">
         <v>47</v>
@@ -6284,7 +6295,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I207" t="s">
         <v>47</v>
@@ -6304,7 +6315,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I208" t="s">
         <v>47</v>
@@ -6324,7 +6335,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I209" t="s">
         <v>47</v>
@@ -6344,7 +6355,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I210" t="s">
         <v>47</v>
@@ -6364,7 +6375,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I211" t="s">
         <v>47</v>
@@ -6384,7 +6395,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I212" t="s">
         <v>47</v>
@@ -6404,7 +6415,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I213" t="s">
         <v>47</v>
@@ -6424,7 +6435,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I214" t="s">
         <v>47</v>
@@ -6444,7 +6455,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I215" t="s">
         <v>47</v>
@@ -6464,7 +6475,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I216" t="s">
         <v>47</v>
@@ -6484,7 +6495,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I217" t="s">
         <v>47</v>
@@ -6504,7 +6515,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I218" t="s">
         <v>47</v>
@@ -6524,7 +6535,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I219" t="s">
         <v>47</v>
@@ -6544,7 +6555,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I220" t="s">
         <v>47</v>
@@ -6564,7 +6575,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I221" t="s">
         <v>47</v>
@@ -6584,7 +6595,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I222" t="s">
         <v>47</v>
@@ -6604,7 +6615,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I223" t="s">
         <v>47</v>
@@ -6624,7 +6635,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I224" t="s">
         <v>47</v>
@@ -6644,7 +6655,7 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I225" t="s">
         <v>47</v>
@@ -6664,22 +6675,10 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2018</v>
-      </c>
-      <c r="G226">
-        <v>0</v>
-      </c>
-      <c r="H226" t="s">
-        <v>66</v>
+        <v>2016</v>
       </c>
       <c r="I226" t="s">
         <v>47</v>
-      </c>
-      <c r="J226" t="s">
-        <v>61</v>
-      </c>
-      <c r="L226" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -6696,7 +6695,7 @@
         <v>39</v>
       </c>
       <c r="E227">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I227" t="s">
         <v>47</v>
@@ -6710,28 +6709,28 @@
         <v>43</v>
       </c>
       <c r="C228" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D228" t="s">
         <v>39</v>
       </c>
       <c r="E228">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G228">
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I228" t="s">
         <v>47</v>
       </c>
       <c r="J228" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L228" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -6742,28 +6741,16 @@
         <v>43</v>
       </c>
       <c r="C229" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D229" t="s">
         <v>39</v>
       </c>
       <c r="E229">
-        <v>1991</v>
-      </c>
-      <c r="G229">
-        <v>0</v>
-      </c>
-      <c r="H229" t="s">
-        <v>55</v>
+        <v>2019</v>
       </c>
       <c r="I229" t="s">
         <v>47</v>
-      </c>
-      <c r="J229" t="s">
-        <v>58</v>
-      </c>
-      <c r="L229" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -6780,7 +6767,7 @@
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6812,7 +6799,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6844,7 +6831,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6876,7 +6863,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6908,7 +6895,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6940,7 +6927,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6972,7 +6959,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -7004,7 +6991,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -7036,7 +7023,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -7068,7 +7055,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -7100,7 +7087,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -7132,7 +7119,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -7164,7 +7151,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -7196,7 +7183,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -7228,7 +7215,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -7260,7 +7247,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -7292,7 +7279,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7324,7 +7311,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7356,7 +7343,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7388,7 +7375,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7420,7 +7407,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7452,7 +7439,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7484,7 +7471,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7516,7 +7503,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7548,7 +7535,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7580,7 +7567,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7612,7 +7599,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7644,7 +7631,7 @@
         <v>39</v>
       </c>
       <c r="E257">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -7670,22 +7657,28 @@
         <v>43</v>
       </c>
       <c r="C258" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D258" t="s">
         <v>39</v>
       </c>
       <c r="E258">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G258">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H258" t="s">
+        <v>55</v>
       </c>
       <c r="I258" t="s">
         <v>47</v>
       </c>
       <c r="J258" t="s">
-        <v>68</v>
+        <v>58</v>
+      </c>
+      <c r="L258" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7696,19 +7689,28 @@
         <v>43</v>
       </c>
       <c r="C259" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D259" t="s">
         <v>39</v>
       </c>
       <c r="E259">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G259">
-        <v>0.3</v>
+        <v>0</v>
+      </c>
+      <c r="H259" t="s">
+        <v>55</v>
       </c>
       <c r="I259" t="s">
         <v>47</v>
+      </c>
+      <c r="J259" t="s">
+        <v>58</v>
+      </c>
+      <c r="L259" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7725,13 +7727,16 @@
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G260">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I260" t="s">
         <v>47</v>
+      </c>
+      <c r="J260" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7748,7 +7753,7 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G261">
         <v>0.3</v>
@@ -7771,7 +7776,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G262">
         <v>0.3</v>
@@ -7794,7 +7799,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G263">
         <v>0.3</v>
@@ -7817,7 +7822,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G264">
         <v>0.3</v>
@@ -7840,7 +7845,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G265">
         <v>0.3</v>
@@ -7863,7 +7868,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G266">
         <v>0.3</v>
@@ -7886,7 +7891,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G267">
         <v>0.3</v>
@@ -7909,7 +7914,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G268">
         <v>0.3</v>
@@ -7932,7 +7937,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G269">
         <v>0.3</v>
@@ -7955,7 +7960,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G270">
         <v>0.3</v>
@@ -7978,7 +7983,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G271">
         <v>0.3</v>
@@ -8001,7 +8006,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G272">
         <v>0.3</v>
@@ -8024,7 +8029,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G273">
         <v>0.3</v>
@@ -8047,7 +8052,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G274">
         <v>0.3</v>
@@ -8070,7 +8075,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G275">
         <v>0.3</v>
@@ -8093,7 +8098,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G276">
         <v>0.3</v>
@@ -8116,7 +8121,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G277">
         <v>0.3</v>
@@ -8139,7 +8144,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G278">
         <v>0.3</v>
@@ -8162,7 +8167,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G279">
         <v>0.3</v>
@@ -8185,7 +8190,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G280">
         <v>0.3</v>
@@ -8208,7 +8213,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G281">
         <v>0.3</v>
@@ -8231,7 +8236,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G282">
         <v>0.3</v>
@@ -8254,7 +8259,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G283">
         <v>0.3</v>
@@ -8277,7 +8282,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G284">
         <v>0.3</v>
@@ -8300,7 +8305,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G285">
         <v>0.3</v>
@@ -8323,7 +8328,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G286">
         <v>0.3</v>
@@ -8346,7 +8351,7 @@
         <v>39</v>
       </c>
       <c r="E287">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G287">
         <v>0.3</v>
@@ -8363,16 +8368,16 @@
         <v>43</v>
       </c>
       <c r="C288" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D288" t="s">
         <v>39</v>
       </c>
       <c r="E288">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G288">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="I288" t="s">
         <v>47</v>
@@ -8386,16 +8391,16 @@
         <v>43</v>
       </c>
       <c r="C289" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D289" t="s">
         <v>39</v>
       </c>
       <c r="E289">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G289">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="I289" t="s">
         <v>47</v>
@@ -8415,7 +8420,7 @@
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G290">
         <v>0.05</v>
@@ -8438,7 +8443,7 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G291">
         <v>0.05</v>
@@ -8461,7 +8466,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G292">
         <v>0.05</v>
@@ -8484,7 +8489,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G293">
         <v>0.05</v>
@@ -8507,7 +8512,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G294">
         <v>0.05</v>
@@ -8530,7 +8535,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G295">
         <v>0.05</v>
@@ -8553,7 +8558,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G296">
         <v>0.05</v>
@@ -8576,7 +8581,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G297">
         <v>0.05</v>
@@ -8599,7 +8604,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G298">
         <v>0.05</v>
@@ -8622,7 +8627,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G299">
         <v>0.05</v>
@@ -8645,7 +8650,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G300">
         <v>0.05</v>
@@ -8668,7 +8673,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G301">
         <v>0.05</v>
@@ -8691,7 +8696,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G302">
         <v>0.05</v>
@@ -8714,7 +8719,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G303">
         <v>0.05</v>
@@ -8737,7 +8742,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G304">
         <v>0.05</v>
@@ -8760,7 +8765,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G305">
         <v>0.05</v>
@@ -8783,7 +8788,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G306">
         <v>0.05</v>
@@ -8806,7 +8811,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G307">
         <v>0.05</v>
@@ -8829,7 +8834,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G308">
         <v>0.05</v>
@@ -8852,7 +8857,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G309">
         <v>0.05</v>
@@ -8875,7 +8880,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G310">
         <v>0.05</v>
@@ -8898,7 +8903,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G311">
         <v>0.05</v>
@@ -8921,7 +8926,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G312">
         <v>0.05</v>
@@ -8944,7 +8949,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G313">
         <v>0.05</v>
@@ -8967,7 +8972,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G314">
         <v>0.05</v>
@@ -8990,7 +8995,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G315">
         <v>0.05</v>
@@ -9013,7 +9018,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G316">
         <v>0.05</v>
@@ -9036,7 +9041,7 @@
         <v>39</v>
       </c>
       <c r="E317">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G317">
         <v>0.05</v>
@@ -9045,11 +9050,57 @@
         <v>47</v>
       </c>
     </row>
-    <row r="430" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K430" s="2"/>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>16</v>
+      </c>
+      <c r="B318" t="s">
+        <v>43</v>
+      </c>
+      <c r="C318" t="s">
+        <v>29</v>
+      </c>
+      <c r="D318" t="s">
+        <v>39</v>
+      </c>
+      <c r="E318">
+        <v>2018</v>
+      </c>
+      <c r="G318">
+        <v>0.05</v>
+      </c>
+      <c r="I318" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>16</v>
+      </c>
+      <c r="B319" t="s">
+        <v>43</v>
+      </c>
+      <c r="C319" t="s">
+        <v>29</v>
+      </c>
+      <c r="D319" t="s">
+        <v>39</v>
+      </c>
+      <c r="E319">
+        <v>2019</v>
+      </c>
+      <c r="G319">
+        <v>0.05</v>
+      </c>
+      <c r="I319" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="432" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K432" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L850" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L852" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/conversion/elec/CHE_convelec_onshorewind.xlsx
+++ b/data/zenodo_ivan/conversion/elec/CHE_convelec_onshorewind.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/elec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E25F5EC-C8C6-CF46-AB57-DB92B44563C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6ABEBB-8C6F-624B-A46F-A42A35574EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="76">
   <si>
     <t>Name:</t>
   </si>
@@ -248,9 +248,6 @@
     <t>capacity_to_activity</t>
   </si>
   <si>
-    <t>GW/TWh</t>
-  </si>
-  <si>
     <t>input</t>
   </si>
   <si>
@@ -258,6 +255,12 @@
   </si>
   <si>
     <t>configuration_fxe</t>
+  </si>
+  <si>
+    <t>PJ/GW</t>
+  </si>
+  <si>
+    <t>Maximum energy production per capacity unit, per year.</t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -785,10 +788,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
@@ -806,10 +809,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
         <v>73</v>
-      </c>
-      <c r="D8" t="s">
-        <v>74</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -904,10 +907,13 @@
         <v>38</v>
       </c>
       <c r="G12">
-        <v>1E-3</v>
+        <v>31.54</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="L12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
